--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1975338.841987896</v>
+        <v>1993713.531454016</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>182.1924483242554</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>159.5623709710786</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>43.31785343914003</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>66.97894477928214</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>344.0128979361961</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>71.9731517137668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>12.56191384102364</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>102.1160415674012</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>117.0398582233544</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>52.10844059186253</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>148.8271244776258</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>122.2151751544596</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>46.2530778377178</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634799</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>185.5567217963125</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2053,22 +2053,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>166.2450749839002</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>123.0162154997283</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>28.36070094014402</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>86.11946026695726</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>117.1709514206834</v>
+        <v>127.6176159584071</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>169.1770053157902</v>
+        <v>140.0424879565125</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>140.6152487166943</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +2998,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>245.6193451222544</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>31.42218700821126</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3235,22 +3235,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3272,10 +3272,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>49.90951201256861</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>24.31066311976693</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>185.0314030821033</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>197.7374713145458</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>134.7660731567842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>140.3296027786802</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>229.0573510537999</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>684.3735766921516</v>
+        <v>660.4734844293818</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862887</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500978</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500978</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.480975254749</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.341643278937</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="6">
@@ -4635,28 +4635,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.294895023096</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>409.294895023096</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>259.1782556107603</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>259.1782556107603</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>112.2883081128499</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>112.2883081128499</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>409.294895023096</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>409.294895023096</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.294895023096</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.506187451444</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C8" t="n">
-        <v>1139.506187451444</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2360.292344976796</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>2360.292344976796</v>
       </c>
       <c r="X8" t="n">
-        <v>1916.245359491378</v>
+        <v>1986.826586715716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1526.106027515566</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,13 +4881,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3816362947775</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1141.200876391121</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1141.200876391121</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1141.200876391121</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1141.200876391121</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1141.200876391121</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>1141.200876391121</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,28 +5276,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5306,19 +5306,19 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,19 +5358,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011336</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.104817265284</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2050.644882483981</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1000.490124917793</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1000.490124917793</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1000.490124917793</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>711.072954880832</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5492,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5598,16 +5598,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>842.8697743566707</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C19" t="n">
-        <v>673.9335914287639</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D19" t="n">
-        <v>523.8169520164281</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5701,22 +5701,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.92115703528</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="W19" t="n">
-        <v>1187.92115703528</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="X19" t="n">
-        <v>1063.662353500201</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="Y19" t="n">
-        <v>842.8697743566707</v>
+        <v>507.0827848727882</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,16 +5753,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095316</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>3158.47475800178</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>3465.794891281741</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N21" t="n">
-        <v>3795.657518945774</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O21" t="n">
-        <v>4075.197584164471</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>912.3640997703106</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C22" t="n">
-        <v>912.3640997703106</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D22" t="n">
-        <v>762.2474603579749</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>614.3343667755818</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.156678913841</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W22" t="n">
-        <v>1133.156678913841</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.156678913841</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y22" t="n">
-        <v>912.3640997703106</v>
+        <v>761.0055017299131</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6005,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.0432218861031</v>
+        <v>3778.208216256918</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>3609.272033329011</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W25" t="n">
-        <v>531.3977182706318</v>
+        <v>4316.752914771445</v>
       </c>
       <c r="X25" t="n">
-        <v>531.3977182706318</v>
+        <v>4088.763363873428</v>
       </c>
       <c r="Y25" t="n">
-        <v>413.0432218861031</v>
+        <v>3959.856681087158</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,19 +6215,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,10 +6236,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028587</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W28" t="n">
-        <v>1328.030406602559</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X28" t="n">
-        <v>1100.040855704541</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>879.2482765610114</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6461,13 +6461,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6497,13 +6497,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3938.3025032891</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C31" t="n">
-        <v>3769.366320361193</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D31" t="n">
-        <v>3627.330715596855</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E31" t="n">
-        <v>3627.330715596855</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F31" t="n">
-        <v>3627.330715596855</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>4347.940519017357</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>4347.940519017357</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W31" t="n">
-        <v>4347.940519017357</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="X31" t="n">
-        <v>4119.950968119339</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="Y31" t="n">
-        <v>4119.950968119339</v>
+        <v>507.0827848727882</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6716,13 +6716,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3490.894976753252</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3490.894976753252</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3490.894976753252</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3490.894976753252</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929844</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.020508932908</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>3893.336020727022</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>3893.336020727022</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>3893.336020727022</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>3672.543441583492</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6932,13 +6932,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,13 +7023,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.6620995918039</v>
+        <v>973.0255547109413</v>
       </c>
       <c r="C37" t="n">
-        <v>383.725916663897</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="D37" t="n">
-        <v>383.725916663897</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E37" t="n">
-        <v>383.725916663897</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F37" t="n">
         <v>359.1696912903951</v>
@@ -7090,7 +7090,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7099,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7126,19 +7126,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X37" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y37" t="n">
-        <v>734.3105644220436</v>
+        <v>1023.439203208485</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,34 +7169,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,19 +7260,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7336,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7357,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1112.095853319815</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>822.9672145333731</v>
+        <v>1299.18145104826</v>
       </c>
       <c r="V40" t="n">
-        <v>568.2827263274862</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="W40" t="n">
-        <v>278.8655562905255</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="X40" t="n">
-        <v>278.8655562905255</v>
+        <v>816.5074119443558</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>595.7148328008257</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320615</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.4856756861153</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>699.5494927582084</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>549.4328533458727</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>401.5197597634796</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>401.5197597634796</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>233.3444380833002</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1357.169197044084</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="X43" t="n">
-        <v>1270.926719659885</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.134140516355</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,25 +7640,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7670,28 +7670,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7834,22 +7834,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X46" t="n">
-        <v>1498.916270557902</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.84934122136</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>73.53204524670059</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776745</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,19 +10425,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>87.16935584025373</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>87.16935584025373</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>44.27839330891794</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>175.2944832206715</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>35.99083926207678</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>85.89256833992778</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>102.6934398893088</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>151.4712792417933</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>59.30158775597398</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24181,16 +24181,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>101.4137019314114</v>
+        <v>90.96703739368769</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>117.3459930208008</v>
+        <v>146.4805103800785</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>8.000224301518074</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24886,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>40.90365321433657</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>113.99886101472</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25123,22 +25123,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>129.9224681693687</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1103849031643</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25366,7 +25366,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25597,25 +25597,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>36.516157976286</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>88.49988108403159</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>14.14775521075197</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,10 +25834,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>57.59120720492308</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25846,13 +25846,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037893</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>57.18000134477739</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>869228.230297801</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583911</v>
@@ -26329,22 +26329,22 @@
         <v>527889.2306459068</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="I2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
       <c r="N2" t="n">
         <v>527889.2306459071</v>
@@ -26353,7 +26353,7 @@
         <v>527889.230645907</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459073</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230236</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26494,22 +26494,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295642.8611048312</v>
+        <v>-293114.539941389</v>
       </c>
       <c r="C6" t="n">
-        <v>294325.0181097134</v>
+        <v>296853.3392731554</v>
       </c>
       <c r="D6" t="n">
-        <v>294325.0181097133</v>
+        <v>296853.3392731554</v>
       </c>
       <c r="E6" t="n">
-        <v>-120596.4965700051</v>
+        <v>-118561.6773320082</v>
       </c>
       <c r="F6" t="n">
-        <v>404563.5399068911</v>
+        <v>406598.3591448879</v>
       </c>
       <c r="G6" t="n">
-        <v>404563.5399068909</v>
+        <v>406598.3591448878</v>
       </c>
       <c r="H6" t="n">
-        <v>404563.5399068911</v>
+        <v>406598.3591448881</v>
       </c>
       <c r="I6" t="n">
-        <v>404563.5399068911</v>
+        <v>406598.3591448879</v>
       </c>
       <c r="J6" t="n">
-        <v>228140.320714298</v>
+        <v>230175.139952295</v>
       </c>
       <c r="K6" t="n">
-        <v>404563.5399068913</v>
+        <v>406598.3591448878</v>
       </c>
       <c r="L6" t="n">
-        <v>404563.5399068913</v>
+        <v>406598.359144888</v>
       </c>
       <c r="M6" t="n">
-        <v>269762.5246730541</v>
+        <v>271797.3439110508</v>
       </c>
       <c r="N6" t="n">
-        <v>404563.5399068913</v>
+        <v>406598.3591448881</v>
       </c>
       <c r="O6" t="n">
-        <v>404563.5399068912</v>
+        <v>406598.359144888</v>
       </c>
       <c r="P6" t="n">
-        <v>404563.5399068911</v>
+        <v>406598.3591448884</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200.5413933392252</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>168.8276855108789</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>219.5440535573089</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>37.91747213606573</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>297.7579489647022</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>143.6089750007715</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>252.5670000532817</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>210.7124002467805</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>137.6958738589652</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31279,46 +31279,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31455,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>280.6254601782252</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35893,7 +35893,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35966,7 +35966,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36200,7 +36200,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36212,10 +36212,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36373,13 +36373,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36610,13 +36610,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36680,19 +36680,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>336.4270607962781</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>610.8663700188191</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>336.4270607962781</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38032,13 +38032,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1993713.531454016</v>
+        <v>2069243.201118822</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>324.8733071349176</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>159.5623709710786</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -823,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>135.1157241044943</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>66.97894477928214</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>319.3678335162777</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>344.0128979361961</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>113.2870337730224</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.780687729549</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>39.22879305694475</v>
       </c>
       <c r="V8" t="n">
-        <v>117.0398582233544</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>52.10844059186253</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>155.3197306044665</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1540,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>122.2151751544596</v>
+        <v>32.91466611915804</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634799</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>29.09084106573891</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>33.5512907457106</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2056,10 +2058,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>166.2450749839002</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.36070094014402</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>139.0551934695318</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>53.93028217674021</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>127.6176159584071</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2606,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>157.7678806163272</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>140.0424879565125</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>212.4198423655579</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>245.6193451222544</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>224.895256723152</v>
+        <v>200.1200861193306</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.90951201256861</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>6.063010891604935</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.21850068608589</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>197.7374713145458</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>140.3296027786802</v>
+        <v>54.40320730981892</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>27.37255160319397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>229.0573510537999</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2310.5492509541</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C2" t="n">
-        <v>1941.586734013689</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>1583.321035406938</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.532782808694</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>786.5468780190865</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>368.5830699172734</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y2" t="n">
-        <v>2697.149091018222</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
         <v>266.2060027641987</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4518,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>591.6484548079553</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>591.6484548079553</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>591.6484548079553</v>
       </c>
       <c r="W4" t="n">
-        <v>660.4734844293818</v>
+        <v>591.6484548079553</v>
       </c>
       <c r="X4" t="n">
-        <v>432.4839335313644</v>
+        <v>591.6484548079553</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6913543878343</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1383.846446409823</v>
+        <v>1744.740694543503</v>
       </c>
       <c r="C5" t="n">
-        <v>1383.846446409823</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1383.846446409823</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
@@ -4568,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646714</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>1773.985778385635</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1383.846446409823</v>
+        <v>1744.740694543503</v>
       </c>
     </row>
     <row r="6">
@@ -4653,13 +4655,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>168.3743290658416</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="8">
@@ -4802,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2657.524047526359</v>
       </c>
       <c r="V8" t="n">
-        <v>2360.292344976796</v>
+        <v>2326.461160182788</v>
       </c>
       <c r="W8" t="n">
-        <v>2360.292344976796</v>
+        <v>1973.692504912674</v>
       </c>
       <c r="X8" t="n">
-        <v>1986.826586715716</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y8" t="n">
-        <v>1596.687254739904</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240411</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261307</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G10" t="n">
-        <v>264.3261428644631</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>106.5777702969933</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5023,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5124,16 +5126,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.475226584133</v>
+        <v>1006.27269220504</v>
       </c>
       <c r="C13" t="n">
-        <v>927.5390436562259</v>
+        <v>837.3365092771334</v>
       </c>
       <c r="D13" t="n">
-        <v>777.4224042438901</v>
+        <v>687.2198698647976</v>
       </c>
       <c r="E13" t="n">
-        <v>629.509310661497</v>
+        <v>539.3067762824045</v>
       </c>
       <c r="F13" t="n">
-        <v>482.6193631635866</v>
+        <v>392.4168287844941</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.123691414372</v>
+        <v>1187.92115703528</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5257,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,7 +5305,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141867</v>
@@ -5355,19 +5357,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>659.3731057211719</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>966.6932390011334</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O15" t="n">
         <v>2123.441607278215</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>557.4905621634928</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5543792355859</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5543792355859</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5543792355859</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>388.5543792355859</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>959.9316061372626</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>739.1390269937325</v>
       </c>
     </row>
     <row r="17">
@@ -5495,34 +5497,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5598,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>507.0827848727882</v>
+        <v>561.6946978510159</v>
       </c>
       <c r="C19" t="n">
-        <v>507.0827848727882</v>
+        <v>392.758514923109</v>
       </c>
       <c r="D19" t="n">
-        <v>507.0827848727882</v>
+        <v>242.6418755107733</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>242.6418755107733</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>242.6418755107733</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>242.6418755107733</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5704,19 +5706,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>507.0827848727882</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W19" t="n">
-        <v>507.0827848727882</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X19" t="n">
-        <v>507.0827848727882</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y19" t="n">
-        <v>507.0827848727882</v>
+        <v>743.3431626812556</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5734,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011336</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N21" t="n">
-        <v>1296.555866665166</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>732.358329063101</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="C22" t="n">
-        <v>563.4221461351941</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X22" t="n">
-        <v>981.7980808734433</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.0055017299131</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,25 +6056,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>644.6755122555218</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M24" t="n">
         <v>1198.760773441947</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3778.208216256918</v>
+        <v>449.7218569567725</v>
       </c>
       <c r="C25" t="n">
-        <v>3609.272033329011</v>
+        <v>449.7218569567725</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>299.6052175444368</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>151.6921239620436</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>151.6921239620436</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>151.6921239620436</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>151.6921239620436</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V25" t="n">
-        <v>4606.170084808406</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W25" t="n">
-        <v>4316.752914771445</v>
+        <v>898.50398699832</v>
       </c>
       <c r="X25" t="n">
-        <v>4088.763363873428</v>
+        <v>670.5144361003026</v>
       </c>
       <c r="Y25" t="n">
-        <v>3959.856681087158</v>
+        <v>449.7218569567725</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,22 +6238,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011339</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.104817265285</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2050.644882483982</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>4184.086356507267</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>4184.086356507267</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>4184.086356507267</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>4701.493077442245</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324574</v>
+        <v>4701.493077442245</v>
       </c>
       <c r="W28" t="n">
-        <v>278.8655562905255</v>
+        <v>4412.075907405284</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>4184.086356507267</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>4184.086356507267</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6464,7 +6466,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6473,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011339</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1771.104817265285</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2050.644882483982</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>507.0827848727882</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C31" t="n">
-        <v>507.0827848727882</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D31" t="n">
-        <v>507.0827848727882</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>1284.350773218955</v>
       </c>
       <c r="V31" t="n">
-        <v>755.183133481126</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="W31" t="n">
-        <v>507.0827848727882</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="X31" t="n">
-        <v>507.0827848727882</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.0827848727882</v>
+        <v>1029.666285013068</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,40 +6685,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L33" t="n">
-        <v>745.6707680030233</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6889,19 +6891,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>1296.774769427265</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>1296.774769427265</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>1007.357599390305</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>779.3680484922876</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>558.5754693487575</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6932,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6956,31 +6958,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>973.0255547109413</v>
+        <v>3634.215830270446</v>
       </c>
       <c r="C37" t="n">
-        <v>804.0893717830344</v>
+        <v>3465.279647342539</v>
       </c>
       <c r="D37" t="n">
-        <v>653.9727323706986</v>
+        <v>3465.279647342539</v>
       </c>
       <c r="E37" t="n">
-        <v>506.0596387883055</v>
+        <v>3465.279647342539</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>3465.279647342539</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="W37" t="n">
-        <v>1244.231782352015</v>
+        <v>4036.656874244216</v>
       </c>
       <c r="X37" t="n">
-        <v>1244.231782352015</v>
+        <v>4036.656874244216</v>
       </c>
       <c r="Y37" t="n">
-        <v>1023.439203208485</v>
+        <v>3815.864295100686</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,10 +7159,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,34 +7171,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,13 +7262,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>414.0663679705859</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1482.533946632563</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1258.748531422069</v>
       </c>
       <c r="U40" t="n">
-        <v>1299.18145104826</v>
+        <v>969.619892635627</v>
       </c>
       <c r="V40" t="n">
-        <v>1044.496962842373</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="W40" t="n">
-        <v>1044.496962842373</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X40" t="n">
-        <v>816.5074119443558</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y40" t="n">
-        <v>595.7148328008257</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>745.6707680030233</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1357.169197044084</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="T43" t="n">
-        <v>1133.38378183359</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U43" t="n">
-        <v>1133.38378183359</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V43" t="n">
-        <v>1133.38378183359</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W43" t="n">
-        <v>843.9666117966292</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X43" t="n">
-        <v>615.9770608986119</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>615.9770608986119</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7643,10 +7645,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7670,10 +7672,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>738.7219969042602</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>569.7858139763533</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>419.6691745640176</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>271.7560809816245</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>124.8661334837141</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>124.8661334837141</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>124.8661334837141</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7834,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1043.759793676903</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>789.0753054710162</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W46" t="n">
-        <v>499.6581354340557</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>159.012100313525</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,7 +9655,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>234.4116509503157</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>73.53204524670008</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>73.53204524670008</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10428,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>87.16935584025373</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>288.4091825776749</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10911,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>87.16935584025373</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>44.27839330891794</v>
+        <v>133.5789023442196</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>137.4027273976387</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>115.3625376218255</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>85.89256833992778</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>151.4712792417933</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>27.43837499384577</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>56.48896328753175</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24421,7 +24423,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.96703739368769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>128.4694717822501</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>146.4805103800785</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>73.81751003301949</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>40.90365321433657</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>61.3420956754253</v>
+        <v>86.11726627924679</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>129.9224681693687</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>160.4305575717727</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25597,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>181.7023092975174</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>88.49988108403159</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.59120720492308</v>
+        <v>143.5176026737843</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26041,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>83.04669386107803</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037893</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>57.18000134477739</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="F2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="H2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="J2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="L2" t="n">
         <v>527889.2306459068</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="N2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="O2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="P2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459073</v>
       </c>
     </row>
     <row r="3">
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26427,13 +26429,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230236</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26442,19 +26444,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="L4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26485,10 +26487,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-293114.539941389</v>
       </c>
       <c r="C6" t="n">
-        <v>296853.3392731554</v>
+        <v>296853.3392731556</v>
       </c>
       <c r="D6" t="n">
         <v>296853.3392731554</v>
       </c>
       <c r="E6" t="n">
-        <v>-118561.6773320082</v>
+        <v>-118561.677332008</v>
       </c>
       <c r="F6" t="n">
+        <v>406598.3591448881</v>
+      </c>
+      <c r="G6" t="n">
+        <v>406598.3591448882</v>
+      </c>
+      <c r="H6" t="n">
         <v>406598.3591448879</v>
-      </c>
-      <c r="G6" t="n">
-        <v>406598.3591448878</v>
-      </c>
-      <c r="H6" t="n">
-        <v>406598.3591448881</v>
       </c>
       <c r="I6" t="n">
         <v>406598.3591448879</v>
       </c>
       <c r="J6" t="n">
-        <v>230175.139952295</v>
+        <v>230175.1399522951</v>
       </c>
       <c r="K6" t="n">
+        <v>406598.3591448881</v>
+      </c>
+      <c r="L6" t="n">
         <v>406598.3591448878</v>
       </c>
-      <c r="L6" t="n">
-        <v>406598.359144888</v>
-      </c>
       <c r="M6" t="n">
-        <v>271797.3439110508</v>
+        <v>271797.343911051</v>
       </c>
       <c r="N6" t="n">
+        <v>406598.3591448879</v>
+      </c>
+      <c r="O6" t="n">
+        <v>406598.3591448878</v>
+      </c>
+      <c r="P6" t="n">
         <v>406598.3591448881</v>
-      </c>
-      <c r="O6" t="n">
-        <v>406598.359144888</v>
-      </c>
-      <c r="P6" t="n">
-        <v>406598.3591448884</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,16 +26749,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>40.39958463608991</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>164.3604017932786</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,13 +27435,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27543,16 +27545,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27588,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>89.91938135358996</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>219.5440535573089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>45.90505825472985</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>37.91747213606573</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>33.14692887354677</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594881</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27904,16 +27906,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>211.9953744513446</v>
       </c>
       <c r="V8" t="n">
-        <v>210.7124002467805</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28017,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>82.85718120047571</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>56.82580834555245</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28330,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31996,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35492,7 +35494,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,7 +35506,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35728,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>492.2066737115377</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>544.8360280007821</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>280.6254601782248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36917,7 +36919,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415665</v>
@@ -36926,10 +36928,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>280.6254601782248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>336.4270607962781</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>570.772884818783</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>610.8663700188191</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>336.4270607962781</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2069243.201118822</v>
+        <v>2062226.186227111</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>324.8733071349176</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,19 +709,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>165.2346790503165</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>135.1157241044943</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>319.3678335162777</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>51.14216186552267</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>113.2870337730224</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>354.7522162574273</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>39.22879305694475</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586883</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>155.3197306044665</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274168</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>2.659981690977313</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>32.91466611915804</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498001</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>29.09084106573891</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>33.5512907457106</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056551</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>139.0551934695318</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>58.70811713027407</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>53.93028217674021</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U28" t="n">
-        <v>157.7678806163272</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2967,7 +2967,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>212.4198423655579</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>105.0903281190973</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>88.40546239687022</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>200.1200861193306</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.063010891604935</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>16.21850068608589</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.40320730981892</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>27.37255160319397</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1704.527073573122</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2080.404530622508</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.527073573122</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1704.527073573122</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.8558756644252</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C4" t="n">
-        <v>370.8558756644252</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>591.6484548079553</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>591.6484548079553</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V4" t="n">
-        <v>591.6484548079553</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W4" t="n">
-        <v>591.6484548079553</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X4" t="n">
-        <v>591.6484548079553</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.8558756644252</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1744.740694543503</v>
+        <v>1748.280186455194</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1748.280186455194</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1390.014487848443</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1004.226235250199</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4579,16 +4579,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4612,7 +4612,7 @@
         <v>2134.880026519315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1744.740694543503</v>
+        <v>2134.880026519315</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318.4909684781774</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>318.4909684781774</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>168.3743290658416</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4767,10 +4767,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U8" t="n">
-        <v>2657.524047526359</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.461160182788</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="W8" t="n">
-        <v>1973.692504912674</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="X8" t="n">
-        <v>1600.226746651594</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="Y8" t="n">
-        <v>1210.087414675782</v>
+        <v>2465.942913862887</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220517</v>
+        <v>559.1928012785278</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>409.076161866192</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>261.1630682837989</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>114.2731207858886</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822471</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5126,19 +5126,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1006.27269220504</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C13" t="n">
-        <v>837.3365092771334</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D13" t="n">
-        <v>687.2198698647976</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>539.3067762824045</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>392.4168287844941</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.92115703528</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y13" t="n">
-        <v>1187.92115703528</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5272,19 +5272,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5311,16 +5311,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.607977814708</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211719</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011334</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.977845975556</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>557.4905621634928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>388.5543792355859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>388.5543792355859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>388.5543792355859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>388.5543792355859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>1187.92115703528</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>959.9316061372626</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>739.1390269937325</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>561.6946978510159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>392.758514923109</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>242.6418755107733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>242.6418755107733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>242.6418755107733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6418755107733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241994</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688109</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799401</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471228</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.60808497467</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980067</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473458</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262964</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>786.0822064765223</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247858</v>
+        <v>531.3977182706354</v>
       </c>
       <c r="W19" t="n">
-        <v>964.1357418247858</v>
+        <v>241.9805482336748</v>
       </c>
       <c r="X19" t="n">
-        <v>964.1357418247858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>743.3431626812556</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>668.5656656016674</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C22" t="n">
-        <v>499.6294826737605</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>499.6294826737605</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>499.6294826737605</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>499.6294826737605</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>1298.996260473455</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X22" t="n">
-        <v>1071.006709575437</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y22" t="n">
-        <v>850.2141304319072</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>449.7218569567725</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>449.7218569567725</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>299.6052175444368</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>151.6921239620436</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>151.6921239620436</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>151.6921239620436</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>151.6921239620436</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.921157035281</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.921157035281</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1187.921157035281</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>898.50398699832</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>670.5144361003026</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>449.7218569567725</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,16 +6214,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6244,13 +6244,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6311,16 +6311,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4701.493077442245</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>4701.493077442245</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>4412.075907405284</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,31 +6451,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1029.666285013068</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C31" t="n">
-        <v>860.7301020851612</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D31" t="n">
-        <v>710.6134626728254</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1284.350773218955</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>1029.666285013068</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W31" t="n">
-        <v>1029.666285013068</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X31" t="n">
-        <v>1029.666285013068</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.666285013068</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>1296.774769427265</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V34" t="n">
-        <v>1296.774769427265</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W34" t="n">
-        <v>1007.357599390305</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X34" t="n">
-        <v>779.3680484922876</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="Y34" t="n">
-        <v>558.5754693487575</v>
+        <v>354.6908600059907</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3634.215830270446</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3465.279647342539</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3465.279647342539</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3465.279647342539</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3465.279647342539</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4326.074044281177</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V37" t="n">
-        <v>4326.074044281177</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>4036.656874244216</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>4036.656874244216</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>3815.864295100686</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,19 +7159,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7192,16 +7192,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1482.533946632563</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1258.748531422069</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>969.619892635627</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>714.9354044297402</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>714.9354044297402</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X40" t="n">
-        <v>486.9458535317228</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1332.888432463345</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1332.888432463345</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1043.759793676903</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>789.0753054710162</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>499.6581354340557</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>738.7219969042602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>569.7858139763533</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>419.6691745640176</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>271.7560809816245</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>124.8661334837141</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>124.8661334837141</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>124.8661334837141</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>920.3704617344999</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>920.3704617344999</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>920.3704617344999</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719076</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>159.012100313525</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>234.4116509503157</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776745</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>177.17199849096</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>133.5789023442196</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>137.4027273976387</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>115.3625376218255</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338207</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.43837499384577</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.4192454642682</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>227.8148812063169</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,10 +24369,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>56.48896328753175</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U28" t="n">
-        <v>128.4694717822501</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24894,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>73.81751003301949</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6193272699399</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>91.42651778506708</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>86.11726627924679</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>160.4305575717727</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>181.7023092975174</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>14.45548819888947</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>143.5176026737843</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>83.04669386107803</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>869228.2302978009</v>
+        <v>869228.2302978007</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583911</v>
@@ -26325,13 +26325,13 @@
         <v>527889.2306459071</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459073</v>
       </c>
       <c r="I2" t="n">
         <v>527889.230645907</v>
@@ -26340,10 +26340,10 @@
         <v>527889.2306459069</v>
       </c>
       <c r="K2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="L2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459068</v>
       </c>
       <c r="M2" t="n">
         <v>527889.2306459071</v>
@@ -26352,10 +26352,10 @@
         <v>527889.2306459069</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230237</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230239</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="K4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29303.54555230232</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
@@ -26453,10 +26453,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26472,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26496,7 +26496,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293114.539941389</v>
+        <v>-293114.5399413892</v>
       </c>
       <c r="C6" t="n">
-        <v>296853.3392731556</v>
+        <v>296853.3392731553</v>
       </c>
       <c r="D6" t="n">
         <v>296853.3392731554</v>
       </c>
       <c r="E6" t="n">
-        <v>-118561.677332008</v>
+        <v>-119536.2685917293</v>
       </c>
       <c r="F6" t="n">
-        <v>406598.3591448881</v>
+        <v>405623.7678851662</v>
       </c>
       <c r="G6" t="n">
-        <v>406598.3591448882</v>
+        <v>405623.7678851666</v>
       </c>
       <c r="H6" t="n">
-        <v>406598.3591448879</v>
+        <v>405623.7678851667</v>
       </c>
       <c r="I6" t="n">
-        <v>406598.3591448879</v>
+        <v>405623.7678851663</v>
       </c>
       <c r="J6" t="n">
-        <v>230175.1399522951</v>
+        <v>229200.5486925733</v>
       </c>
       <c r="K6" t="n">
-        <v>406598.3591448881</v>
+        <v>405623.7678851663</v>
       </c>
       <c r="L6" t="n">
-        <v>406598.3591448878</v>
+        <v>405623.7678851665</v>
       </c>
       <c r="M6" t="n">
-        <v>271797.343911051</v>
+        <v>270822.7526513294</v>
       </c>
       <c r="N6" t="n">
-        <v>406598.3591448879</v>
+        <v>405623.7678851663</v>
       </c>
       <c r="O6" t="n">
-        <v>406598.3591448878</v>
+        <v>405623.7678851666</v>
       </c>
       <c r="P6" t="n">
-        <v>406598.3591448881</v>
+        <v>405623.7678851665</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26743,28 +26743,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>40.39958463608991</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>85.98948845797278</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>89.91938135358996</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>45.90505825472985</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>355.7338838761888</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>33.14692887354677</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>75.30176537689273</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>10.52067551358022</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>211.9953744513446</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831821</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>56.82580834555245</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28979,7 +28979,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624588</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>492.2066737115377</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556927</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36141,10 +36141,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>544.8360280007821</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37399,10 +37399,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2062226.186227111</v>
+        <v>2067165.449076142</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>35.18155893056274</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>165.2346790503165</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.27559683049698</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>51.14216186552267</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>159.5623709710786</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>92.00803688215818</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>354.7522162574273</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.255748559886</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586883</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274168</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.659981690977313</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498001</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>30.43484953081554</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056551</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>234.1231749377856</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>58.70811713027407</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>183.1796758467</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>20.66490487310664</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>73.63564309577549</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>105.0903281190973</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>88.40546239687022</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>146.7784714799122</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>170.4824349897576</v>
       </c>
       <c r="U37" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>211.2541671901477</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>59.77945773664938</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2080.404530622508</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>557.4050153476338</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1748.280186455194</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>1748.280186455194</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>1390.014487848443</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>1004.226235250199</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4579,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137952</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2465.942913862887</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862887</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2465.942913862887</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785278</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>409.076161866192</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837989</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858886</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822471</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5126,19 +5126,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2410.070939158951</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>731.3351829786183</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150548</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,13 +5278,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,19 +5296,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5360,19 +5360,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5463,16 +5463,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
         <v>325.2066423583032</v>
@@ -5506,10 +5506,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5612,7 +5612,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5673,52 +5673,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241994</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688109</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799401</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471228</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.60808497467</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980067</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473458</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262964</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765223</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706354</v>
+        <v>755.3399342231696</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336748</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5837,22 +5837,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>727.647686332073</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W22" t="n">
-        <v>472.0965898562135</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>244.1070389581962</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.1070389581962</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5983,7 +5983,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6001,16 +6001,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6086,7 +6086,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6174,22 +6174,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,16 +6214,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6232,25 +6232,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="29">
@@ -6445,25 +6445,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>879.2482765610114</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C31" t="n">
-        <v>710.3120936331045</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1313.461729649247</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1089.676314438753</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>800.5476756523115</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="W31" t="n">
-        <v>1387.841167119728</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="X31" t="n">
-        <v>1281.689320534781</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="Y31" t="n">
-        <v>1060.896741391251</v>
+        <v>545.8631874464246</v>
       </c>
     </row>
     <row r="32">
@@ -6691,34 +6691,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>712.4440896858632</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>543.5079067579563</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>393.3912673456206</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>245.4781737632275</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>245.4781737632275</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6891,19 +6891,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>898.7925182488382</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V34" t="n">
-        <v>644.1080300429513</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W34" t="n">
-        <v>354.6908600059907</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="X34" t="n">
-        <v>354.6908600059907</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="Y34" t="n">
-        <v>354.6908600059907</v>
+        <v>712.4440896858632</v>
       </c>
     </row>
     <row r="35">
@@ -6931,34 +6931,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="U37" t="n">
-        <v>1271.749344574921</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="V37" t="n">
-        <v>1017.064856369034</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>1098.722239872251</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>877.929660728721</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,49 +7159,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>531.3977182706318</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>157.600382103366</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719076</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>127.6461250100647</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9421,10 +9421,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.17199849096</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>221.7027937930125</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338207</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642682</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>52.11417746079172</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>227.8148812063169</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>103.0576765518773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.0447505159305</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>124.2851668878278</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>120.6193272699399</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.42651778506708</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>19.7150969834654</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25131,19 +25131,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>51.0651260686316</v>
       </c>
       <c r="U37" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>14.45548819888947</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8051956154454</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>869228.2302978007</v>
+        <v>869228.2302978009</v>
       </c>
     </row>
     <row r="13">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583909</v>
@@ -26322,40 +26322,40 @@
         <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="F2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="J2" t="n">
         <v>527889.2306459072</v>
       </c>
-      <c r="H2" t="n">
-        <v>527889.2306459073</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459069</v>
       </c>
       <c r="L2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="N2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459066</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230239</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26453,10 +26453,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26472,25 +26472,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,16 +26499,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293114.5399413892</v>
+        <v>-293114.5399413891</v>
       </c>
       <c r="C6" t="n">
         <v>296853.3392731553</v>
@@ -26530,40 +26530,40 @@
         <v>296853.3392731554</v>
       </c>
       <c r="E6" t="n">
-        <v>-119536.2685917293</v>
+        <v>-118659.1364579805</v>
       </c>
       <c r="F6" t="n">
-        <v>405623.7678851662</v>
+        <v>406500.900018916</v>
       </c>
       <c r="G6" t="n">
-        <v>405623.7678851666</v>
+        <v>406500.9000189158</v>
       </c>
       <c r="H6" t="n">
-        <v>405623.7678851667</v>
+        <v>406500.9000189158</v>
       </c>
       <c r="I6" t="n">
-        <v>405623.7678851663</v>
+        <v>406500.9000189157</v>
       </c>
       <c r="J6" t="n">
-        <v>229200.5486925733</v>
+        <v>230077.6808263232</v>
       </c>
       <c r="K6" t="n">
-        <v>405623.7678851663</v>
+        <v>406500.9000189159</v>
       </c>
       <c r="L6" t="n">
-        <v>405623.7678851665</v>
+        <v>406500.9000189159</v>
       </c>
       <c r="M6" t="n">
-        <v>270822.7526513294</v>
+        <v>271699.8847850785</v>
       </c>
       <c r="N6" t="n">
-        <v>405623.7678851663</v>
+        <v>406500.9000189158</v>
       </c>
       <c r="O6" t="n">
-        <v>405623.7678851666</v>
+        <v>406500.900018916</v>
       </c>
       <c r="P6" t="n">
-        <v>405623.7678851665</v>
+        <v>406500.9000189155</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,16 +26740,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26761,16 +26761,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>330.0913328404448</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>85.98948845797278</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618412</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.771212764859513</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>355.7338838761888</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664919</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>75.30176537689273</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>10.52067551358022</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858303</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831821</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551389</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28979,7 +28979,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624588</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>215.6591577951388</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556927</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36141,10 +36141,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
